--- a/filestemplate/f1.xlsx
+++ b/filestemplate/f1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nattawutr./dormitory-management-information-system-ocr-engine/filestemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345C8A4-9112-544C-9E25-01166093DE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33BBF02-750C-104A-86F2-BF08D1E23B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,6 +529,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,7 +551,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -570,9 +583,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,20 +593,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,7 +934,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.35"/>
@@ -942,10 +942,10 @@
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.83203125" style="1" customWidth="1"/>
@@ -961,118 +961,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="str">
+      <c r="A3" s="23" t="str">
         <f>"- หอพัก (เล่มที่ 2387/20-44)"</f>
         <v>- หอพัก (เล่มที่ 2387/20-44)</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="21" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="37"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1082,36 +1082,36 @@
       <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="29"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="24" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1121,30 +1121,30 @@
       <c r="J6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="29"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="44" t="s">
+      <c r="O6" s="25"/>
+      <c r="P6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="42"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1155,10 +1155,10 @@
       <c r="J7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1166,15 +1166,18 @@
         <f>"@100"</f>
         <v>@100</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="43"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="P6:P7"/>
@@ -1191,9 +1194,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="E4:F7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
